--- a/Prelim_Data/Columbia_Plateau/Columbia_Plateau_30_95.xlsx
+++ b/Prelim_Data/Columbia_Plateau/Columbia_Plateau_30_95.xlsx
@@ -2246,7 +2246,7 @@
         <v>6.152777777777777</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005779341191785077</v>
+        <v>0.005779341191785079</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>10.77420634920635</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01789475208351016</v>
+        <v>0.01789475208351017</v>
       </c>
       <c r="P16" t="n">
         <v>0.7</v>
@@ -2488,7 +2488,7 @@
         <v>7.416073781291174</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00561857848686557</v>
+        <v>0.005618578486865572</v>
       </c>
       <c r="P17" t="n">
         <v>0.7666666666666667</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="AK17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AK20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="AK21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3093,7 +3093,7 @@
         <v>4.499452654625069</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04698714589605454</v>
+        <v>0.04698714589605456</v>
       </c>
       <c r="P22" t="n">
         <v>0.9666666666666667</v>
@@ -3214,7 +3214,7 @@
         <v>6.270970695970695</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04900963588476682</v>
+        <v>0.04900963588476684</v>
       </c>
       <c r="P23" t="n">
         <v>0.8666666666666667</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="AK23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3819,7 +3819,7 @@
         <v>10.88266666666666</v>
       </c>
       <c r="O28" t="n">
-        <v>0.00278619350548555</v>
+        <v>0.002786193505485551</v>
       </c>
       <c r="P28" t="n">
         <v>0.8333333333333334</v>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="AK42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5634,7 +5634,7 @@
         <v>5.950833333333334</v>
       </c>
       <c r="O43" t="n">
-        <v>0.04307847649894679</v>
+        <v>0.04307847649894682</v>
       </c>
       <c r="P43" t="n">
         <v>0.6896551724137931</v>
@@ -7328,7 +7328,7 @@
         <v>19.50833333333333</v>
       </c>
       <c r="O57" t="n">
-        <v>0.2156407608830076</v>
+        <v>0.2156407608830078</v>
       </c>
       <c r="P57" t="n">
         <v>0.6666666666666666</v>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="AK58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="AK62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -8659,7 +8659,7 @@
         <v>6.504960317460317</v>
       </c>
       <c r="O68" t="n">
-        <v>0.04734500304124711</v>
+        <v>0.04734500304124714</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>50.56666666666667</v>
       </c>
       <c r="O73" t="n">
-        <v>0.02129746785787539</v>
+        <v>0.0212974678578754</v>
       </c>
       <c r="P73" t="n">
         <v>0.3333333333333333</v>
@@ -9869,7 +9869,7 @@
         <v>5.308412698412697</v>
       </c>
       <c r="O78" t="n">
-        <v>0.003306232892965529</v>
+        <v>0.00330623289296553</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="AK78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -10111,7 +10111,7 @@
         <v>8.977056277056278</v>
       </c>
       <c r="O80" t="n">
-        <v>0.002732410185299381</v>
+        <v>0.002732410185299382</v>
       </c>
       <c r="P80" t="n">
         <v>0.7333333333333333</v>
@@ -10232,7 +10232,7 @@
         <v>7.156249999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00464995638615136</v>
+        <v>0.004649956386151363</v>
       </c>
       <c r="P81" t="n">
         <v>0.8</v>
@@ -10353,7 +10353,7 @@
         <v>6.635010822510822</v>
       </c>
       <c r="O82" t="n">
-        <v>0.04609438884185084</v>
+        <v>0.04609438884185086</v>
       </c>
       <c r="P82" t="n">
         <v>0.7333333333333333</v>
@@ -10474,7 +10474,7 @@
         <v>6.808488612836439</v>
       </c>
       <c r="O83" t="n">
-        <v>0.04812780832517322</v>
+        <v>0.0481278083251732</v>
       </c>
       <c r="P83" t="n">
         <v>0.7666666666666667</v>
@@ -10837,7 +10837,7 @@
         <v>8.585204081632652</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01996089263569628</v>
+        <v>0.0199608926356963</v>
       </c>
       <c r="P86" t="n">
         <v>0.5185185185185185</v>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="AK88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="AK91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -11684,7 +11684,7 @@
         <v>26.39285714285714</v>
       </c>
       <c r="O93" t="n">
-        <v>0.07324438939577613</v>
+        <v>0.07324438939577617</v>
       </c>
       <c r="P93" t="n">
         <v>0.4666666666666667</v>
@@ -11805,7 +11805,7 @@
         <v>7.363718820861679</v>
       </c>
       <c r="O94" t="n">
-        <v>0.007163830006606224</v>
+        <v>0.007163830006606227</v>
       </c>
       <c r="P94" t="n">
         <v>0.7</v>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="AK96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="AK99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -12652,7 +12652,7 @@
         <v>9.672499999999999</v>
       </c>
       <c r="O101" t="n">
-        <v>0.04816471235294288</v>
+        <v>0.0481647123529429</v>
       </c>
       <c r="P101" t="n">
         <v>0.6666666666666666</v>
@@ -12894,7 +12894,7 @@
         <v>7.833994708994709</v>
       </c>
       <c r="O103" t="n">
-        <v>0.04403517620970953</v>
+        <v>0.04403517620970954</v>
       </c>
       <c r="P103" t="n">
         <v>0.6923076923076923</v>
@@ -13015,7 +13015,7 @@
         <v>8.362280701754386</v>
       </c>
       <c r="O104" t="n">
-        <v>0.05533164632087834</v>
+        <v>0.05533164632087837</v>
       </c>
       <c r="P104" t="n">
         <v>0.6333333333333333</v>
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="AK119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -15072,7 +15072,7 @@
         <v>9.385416666666666</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0116221882639547</v>
+        <v>0.01162218826395471</v>
       </c>
       <c r="P121" t="n">
         <v>0.8888888888888888</v>
@@ -15749,7 +15749,7 @@
         </is>
       </c>
       <c r="AK126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="AK128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -16282,7 +16282,7 @@
         <v>9.464197530864199</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1322786678075589</v>
+        <v>0.1322786678075588</v>
       </c>
       <c r="P131" t="n">
         <v>0.9</v>
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="AK132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -16524,7 +16524,7 @@
         <v>8.063666666666666</v>
       </c>
       <c r="O133" t="n">
-        <v>0.02855739494976633</v>
+        <v>0.02855739494976635</v>
       </c>
       <c r="P133" t="n">
         <v>0.8333333333333334</v>
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="AK133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="AK135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -16959,7 +16959,7 @@
         </is>
       </c>
       <c r="AK136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -17613,7 +17613,7 @@
         <v>8.190095238095237</v>
       </c>
       <c r="O142" t="n">
-        <v>0.006994705988248213</v>
+        <v>0.006994705988248208</v>
       </c>
       <c r="P142" t="n">
         <v>0.8620689655172413</v>
@@ -27631,25 +27631,25 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05420750615423708</v>
+        <v>0.09124320211532533</v>
       </c>
       <c r="N4" t="n">
-        <v>1.925174699704856</v>
+        <v>1.688875965185925</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2436781609195402</v>
+        <v>0.2192118226600985</v>
       </c>
       <c r="P4" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="n">
-        <v>2974.666666666667</v>
+        <v>2715</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2739583333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>1.383333333333333</v>
+        <v>2.164583333333334</v>
       </c>
     </row>
     <row r="5">
@@ -29061,25 +29061,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8332951408308866</v>
+        <v>0.9046033291427005</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2104773333045656</v>
+        <v>0.1198482881916595</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02758620689655172</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2731.333333333333</v>
+        <v>2506.333333333333</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -29256,25 +29256,25 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06396014635910952</v>
+        <v>0.05990572743327505</v>
       </c>
       <c r="N29" t="n">
-        <v>1.852457560440095</v>
+        <v>1.881486813157878</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2344827586206897</v>
+        <v>0.2438423645320197</v>
       </c>
       <c r="P29" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q29" t="n">
-        <v>2972.666666666667</v>
+        <v>2713</v>
       </c>
       <c r="R29" t="n">
-        <v>0.152</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2039999999999997</v>
+        <v>-0.375757575757576</v>
       </c>
     </row>
     <row r="30">
@@ -29971,25 +29971,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3525732971675004</v>
+        <v>0.9334856116416619</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9296095188101551</v>
+        <v>0.0834602139578355</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1218390804597701</v>
+        <v>0.01424501424501425</v>
       </c>
       <c r="P40" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3129</v>
+        <v>2297</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.01515151515151518</v>
       </c>
       <c r="S40" t="n">
-        <v>2.383333333333332</v>
+        <v>4.088744588744588</v>
       </c>
     </row>
     <row r="41">
@@ -30166,25 +30166,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1607966307590876</v>
+        <v>0.2886296994062758</v>
       </c>
       <c r="N43" t="n">
-        <v>1.402397328239708</v>
+        <v>1.061132478955467</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1793103448275862</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P43" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q43" t="n">
-        <v>3014.666666666667</v>
+        <v>2494.666666666667</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1</v>
+        <v>0.096875</v>
       </c>
       <c r="S43" t="n">
-        <v>1.883333333333333</v>
+        <v>2.525520833333333</v>
       </c>
     </row>
     <row r="44">
@@ -30354,32 +30354,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01242786844325994</v>
+        <v>0.577274383745257</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.499756531053887</v>
+        <v>-0.5573704017131537</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.271264367816092</v>
+        <v>-0.1029411764705882</v>
       </c>
       <c r="P46" t="n">
-        <v>-118</v>
+        <v>-14</v>
       </c>
       <c r="Q46" t="n">
-        <v>2190.666666666667</v>
+        <v>544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -32044,32 +32044,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.009500216048047516</v>
+        <v>0.08384031020703486</v>
       </c>
       <c r="N72" t="n">
-        <v>2.593508609741995</v>
+        <v>1.728825615270013</v>
       </c>
       <c r="O72" t="n">
-        <v>0.303448275862069</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="P72" t="n">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="Q72" t="n">
-        <v>2551.333333333333</v>
+        <v>1164.666666666667</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>0.08333333333333348</v>
       </c>
     </row>
     <row r="73">
@@ -35294,32 +35294,32 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.001092821959605361</v>
+        <v>0.1350836263468835</v>
       </c>
       <c r="N122" t="n">
-        <v>3.265470997521582</v>
+        <v>1.49435205382276</v>
       </c>
       <c r="O122" t="n">
-        <v>0.4045977011494253</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="P122" t="n">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="Q122" t="n">
-        <v>2872</v>
+        <v>1404.333333333333</v>
       </c>
       <c r="R122" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="S122" t="n">
-        <v>-1.026388888888889</v>
+        <v>3.015873015873016</v>
       </c>
     </row>
     <row r="123">
@@ -35619,32 +35619,32 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.02662880125046896</v>
+        <v>0.05112272749065738</v>
       </c>
       <c r="N127" t="n">
-        <v>2.216916452684236</v>
+        <v>1.950448151275792</v>
       </c>
       <c r="O127" t="n">
-        <v>0.2597701149425287</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="P127" t="n">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="Q127" t="n">
-        <v>2552.333333333333</v>
+        <v>580.6666666666666</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1.350000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -37042,19 +37042,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1033347336068009</v>
+        <v>0.1692354188501368</v>
       </c>
       <c r="N4" t="n">
-        <v>1.628897433049193</v>
+        <v>1.374664703360094</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2022988505747126</v>
+        <v>0.1748768472906404</v>
       </c>
       <c r="P4" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2852.666666666667</v>
+        <v>2593</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -38472,25 +38472,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6534731084651275</v>
+        <v>0.713284142388857</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4489425387494554</v>
+        <v>0.3674489795938048</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05517241379310345</v>
+        <v>0.04679802955665024</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="n">
-        <v>2624.666666666667</v>
+        <v>2399.666666666667</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -38667,25 +38667,25 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4064215126995787</v>
+        <v>0.4170480732510811</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8302074342805233</v>
+        <v>0.8115531676178501</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1057471264367816</v>
+        <v>0.1059113300492611</v>
       </c>
       <c r="P29" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="n">
-        <v>2938</v>
+        <v>2678.333333333333</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -39382,19 +39382,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3845866617410678</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8694763070934431</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1103448275862069</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2922</v>
+        <v>2090</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -39570,32 +39570,32 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0298970028731349</v>
+        <v>0.05668784899732704</v>
       </c>
       <c r="N43" t="n">
-        <v>2.171452250544986</v>
+        <v>1.905709939635053</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2735632183908046</v>
+        <v>0.2513227513227513</v>
       </c>
       <c r="P43" t="n">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="Q43" t="n">
-        <v>2953</v>
+        <v>2433</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08012820512820512</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.1153846153846154</v>
+        <v>-0.08173076923076916</v>
       </c>
     </row>
     <row r="44">
@@ -39765,32 +39765,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6151205041013237</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.5027777991522042</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.08823529411764706</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>478.6666666666667</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.01261330826506657</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.494504625164811</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.2666666666666667</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-116</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2125.333333333333</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -41462,25 +41462,25 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1074104221402943</v>
+        <v>0.7902291355909628</v>
       </c>
       <c r="N72" t="n">
-        <v>1.60994244290779</v>
+        <v>0.2660130798453453</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1885057471264368</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="P72" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="Q72" t="n">
-        <v>2531.333333333333</v>
+        <v>1144.666666666667</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -44712,25 +44712,25 @@
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>7.683910753919498e-05</v>
+        <v>0.0136468100021383</v>
       </c>
       <c r="N122" t="n">
-        <v>3.95405072667412</v>
+        <v>2.466428160553326</v>
       </c>
       <c r="O122" t="n">
-        <v>0.4781609195402299</v>
+        <v>0.3517786561264822</v>
       </c>
       <c r="P122" t="n">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="Q122" t="n">
-        <v>2740.666666666667</v>
+        <v>1273</v>
       </c>
       <c r="R122" t="n">
-        <v>0.0625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S122" t="n">
-        <v>0.09375</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="123">
@@ -45037,25 +45037,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.2249827113929315</v>
+        <v>0.9323851505432275</v>
       </c>
       <c r="N127" t="n">
-        <v>1.213384861647071</v>
+        <v>-0.08484432973359157</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1425287356321839</v>
+        <v>-0.02205882352941177</v>
       </c>
       <c r="P127" t="n">
-        <v>62</v>
+        <v>-3</v>
       </c>
       <c r="Q127" t="n">
-        <v>2527.333333333333</v>
+        <v>555.6666666666666</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
